--- a/Selenium/Bugs/data/genre/J-POP.xlsx
+++ b/Selenium/Bugs/data/genre/J-POP.xlsx
@@ -733,7 +733,7 @@
     <t>Arrietty's Song (Theme Song)</t>
   </si>
   <si>
-    <t>ComeHomeBaby</t>
+    <t xml:space="preserve">ComeHomeBaby </t>
   </si>
   <si>
     <t>Carnival Comes</t>
